--- a/Code/Results/Cases/Case_9_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006225130369431</v>
+        <v>1.00602648363351</v>
       </c>
       <c r="D2">
-        <v>1.025367755204486</v>
+        <v>1.024713887110522</v>
       </c>
       <c r="E2">
-        <v>1.01184108065477</v>
+        <v>1.01167514338324</v>
       </c>
       <c r="F2">
-        <v>1.027706942776385</v>
+        <v>1.027591927637156</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045282094849994</v>
+        <v>1.045040747639827</v>
       </c>
       <c r="J2">
-        <v>1.028221229809396</v>
+        <v>1.028028425669188</v>
       </c>
       <c r="K2">
-        <v>1.036484637183304</v>
+        <v>1.035839329163547</v>
       </c>
       <c r="L2">
-        <v>1.02313787891099</v>
+        <v>1.022974186312565</v>
       </c>
       <c r="M2">
-        <v>1.038793313099234</v>
+        <v>1.03867979411679</v>
       </c>
       <c r="N2">
-        <v>1.01330319405499</v>
+        <v>1.014627807353291</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039274694580988</v>
+        <v>1.03918485175892</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036868057000331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036420560516761</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021607313547034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009468024949614</v>
+        <v>1.009164640373382</v>
       </c>
       <c r="D3">
-        <v>1.027513142723994</v>
+        <v>1.026709798647435</v>
       </c>
       <c r="E3">
-        <v>1.014347100364858</v>
+        <v>1.014089455240372</v>
       </c>
       <c r="F3">
-        <v>1.030219877486392</v>
+        <v>1.03005487866949</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045985671388899</v>
+        <v>1.045672778515858</v>
       </c>
       <c r="J3">
-        <v>1.02970386810839</v>
+        <v>1.029408548122764</v>
       </c>
       <c r="K3">
-        <v>1.037805686339178</v>
+        <v>1.037011958821769</v>
       </c>
       <c r="L3">
-        <v>1.02479964039632</v>
+        <v>1.024545177810118</v>
       </c>
       <c r="M3">
-        <v>1.040480156523355</v>
+        <v>1.040317118495539</v>
       </c>
       <c r="N3">
-        <v>1.013805544923035</v>
+        <v>1.014999118614308</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040609719086267</v>
+        <v>1.040480685426725</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037799485515036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037246767860987</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021823391592791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011533247228373</v>
+        <v>1.011163789067822</v>
       </c>
       <c r="D4">
-        <v>1.028883399576238</v>
+        <v>1.02798525352456</v>
       </c>
       <c r="E4">
-        <v>1.015948676076263</v>
+        <v>1.01563310548104</v>
       </c>
       <c r="F4">
-        <v>1.031826375346572</v>
+        <v>1.031629850158022</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046426620153442</v>
+        <v>1.046068332675129</v>
       </c>
       <c r="J4">
-        <v>1.030646462732448</v>
+        <v>1.03028617174608</v>
       </c>
       <c r="K4">
-        <v>1.038645290491056</v>
+        <v>1.037757258050197</v>
       </c>
       <c r="L4">
-        <v>1.025858351153105</v>
+        <v>1.025546444207726</v>
       </c>
       <c r="M4">
-        <v>1.04155527860644</v>
+        <v>1.041360949039761</v>
       </c>
       <c r="N4">
-        <v>1.014124887830119</v>
+        <v>1.015235254081865</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041460605499183</v>
+        <v>1.04130680686483</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038394057193066</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037774740506208</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021958437703423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012396425883649</v>
+        <v>1.01199947299542</v>
       </c>
       <c r="D5">
-        <v>1.029459297107688</v>
+        <v>1.02852164079013</v>
       </c>
       <c r="E5">
-        <v>1.016619726891523</v>
+        <v>1.016280034793487</v>
       </c>
       <c r="F5">
-        <v>1.03249848850002</v>
+        <v>1.032288847655793</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046610606139357</v>
+        <v>1.046233380469015</v>
       </c>
       <c r="J5">
-        <v>1.031041419422073</v>
+        <v>1.03065402622816</v>
       </c>
       <c r="K5">
-        <v>1.038998691504201</v>
+        <v>1.038071316999044</v>
       </c>
       <c r="L5">
-        <v>1.026301943241192</v>
+        <v>1.02596609011203</v>
       </c>
       <c r="M5">
-        <v>1.042004714353058</v>
+        <v>1.041797353750854</v>
       </c>
       <c r="N5">
-        <v>1.014258920428944</v>
+        <v>1.015334415470839</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04181630319821</v>
+        <v>1.041652191465072</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03865112562298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038004702152655</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022015272674834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012544186336836</v>
+        <v>1.012142507101532</v>
       </c>
       <c r="D6">
-        <v>1.029560676149906</v>
+        <v>1.028616287459545</v>
       </c>
       <c r="E6">
-        <v>1.01673507652663</v>
+        <v>1.016391233935186</v>
       </c>
       <c r="F6">
-        <v>1.032612672462228</v>
+        <v>1.032400779087036</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046643730966232</v>
+        <v>1.046263259234988</v>
       </c>
       <c r="J6">
-        <v>1.031110704278669</v>
+        <v>1.030718649591923</v>
       </c>
       <c r="K6">
-        <v>1.039062695412953</v>
+        <v>1.038128615639347</v>
       </c>
       <c r="L6">
-        <v>1.026379113925632</v>
+        <v>1.026039139464749</v>
       </c>
       <c r="M6">
-        <v>1.042081534379016</v>
+        <v>1.041871935277764</v>
       </c>
       <c r="N6">
-        <v>1.014282715853944</v>
+        <v>1.015352057275439</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041877100984809</v>
+        <v>1.041711217646514</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038705142056562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038054846450494</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022026198224755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01155361990033</v>
+        <v>1.011189864336135</v>
       </c>
       <c r="D7">
-        <v>1.028904320952683</v>
+        <v>1.028010080841586</v>
       </c>
       <c r="E7">
-        <v>1.015965589917749</v>
+        <v>1.015655113299377</v>
       </c>
       <c r="F7">
-        <v>1.031839670301119</v>
+        <v>1.031645712359051</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046435615607017</v>
+        <v>1.046079990057447</v>
       </c>
       <c r="J7">
-        <v>1.030660345853071</v>
+        <v>1.030305612115238</v>
       </c>
       <c r="K7">
-        <v>1.038663087847044</v>
+        <v>1.037778913453215</v>
       </c>
       <c r="L7">
-        <v>1.02587213062705</v>
+        <v>1.025565257142313</v>
       </c>
       <c r="M7">
-        <v>1.041565547339569</v>
+        <v>1.041373755540003</v>
       </c>
       <c r="N7">
-        <v>1.0141303706356</v>
+        <v>1.015266873225347</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041468732502098</v>
+        <v>1.041316942339721</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038426789708861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037812200278065</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021964518140754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007339062081253</v>
+        <v>1.007123956672242</v>
       </c>
       <c r="D8">
-        <v>1.026112896630914</v>
+        <v>1.025422368549387</v>
       </c>
       <c r="E8">
-        <v>1.012702116563988</v>
+        <v>1.012522132896123</v>
       </c>
       <c r="F8">
-        <v>1.028565671179199</v>
+        <v>1.028442349136824</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045530960131658</v>
+        <v>1.045274608879773</v>
       </c>
       <c r="J8">
-        <v>1.02873649476188</v>
+        <v>1.028527507166883</v>
       </c>
       <c r="K8">
-        <v>1.036950398397906</v>
+        <v>1.036268646075949</v>
       </c>
       <c r="L8">
-        <v>1.023712735185129</v>
+        <v>1.023535113970676</v>
       </c>
       <c r="M8">
-        <v>1.039372120086105</v>
+        <v>1.039250354924659</v>
       </c>
       <c r="N8">
-        <v>1.013478792526347</v>
+        <v>1.014841213965978</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.03973278213753</v>
+        <v>1.039636413067183</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037220344266865</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036749346041619</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021690581645797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9996349970444709</v>
+        <v>0.9996756247868628</v>
       </c>
       <c r="D9">
-        <v>1.021031405364216</v>
+        <v>1.020700483940334</v>
       </c>
       <c r="E9">
-        <v>1.006780457473771</v>
+        <v>1.006823949856895</v>
       </c>
       <c r="F9">
-        <v>1.022635013325196</v>
+        <v>1.022633742624068</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04381490410625</v>
+        <v>1.043731006781905</v>
       </c>
       <c r="J9">
-        <v>1.025200651094137</v>
+        <v>1.025239842781114</v>
       </c>
       <c r="K9">
-        <v>1.033792235468249</v>
+        <v>1.0334664064792</v>
       </c>
       <c r="L9">
-        <v>1.01976447609015</v>
+        <v>1.019807275007587</v>
       </c>
       <c r="M9">
-        <v>1.035371225621051</v>
+        <v>1.035369974388112</v>
       </c>
       <c r="N9">
-        <v>1.01227978485624</v>
+        <v>1.013965588616447</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036566332044076</v>
+        <v>1.036565341771654</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034984125605167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034764508197876</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.0211599371236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9943613190195615</v>
+        <v>0.9946076280983623</v>
       </c>
       <c r="D10">
-        <v>1.017588207690818</v>
+        <v>1.017524934110214</v>
       </c>
       <c r="E10">
-        <v>1.002766163923328</v>
+        <v>1.002989221287125</v>
       </c>
       <c r="F10">
-        <v>1.01878447844573</v>
+        <v>1.018880801932943</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042631675838296</v>
+        <v>1.042679468924927</v>
       </c>
       <c r="J10">
-        <v>1.022800454570431</v>
+        <v>1.023036836828388</v>
       </c>
       <c r="K10">
-        <v>1.031647000646934</v>
+        <v>1.03158481907171</v>
       </c>
       <c r="L10">
-        <v>1.017085653392488</v>
+        <v>1.017304713352944</v>
       </c>
       <c r="M10">
-        <v>1.032822658596388</v>
+        <v>1.032917325066802</v>
       </c>
       <c r="N10">
-        <v>1.011469615899224</v>
+        <v>1.013492031279756</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034600979698012</v>
+        <v>1.03467589776348</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033484159412234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033452635108245</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020799031452948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9924385710092106</v>
+        <v>0.9927899218880644</v>
       </c>
       <c r="D11">
-        <v>1.016417326531357</v>
+        <v>1.016467906917653</v>
       </c>
       <c r="E11">
-        <v>1.001364013755983</v>
+        <v>1.001678207399045</v>
       </c>
       <c r="F11">
-        <v>1.018764490729401</v>
+        <v>1.018909282082028</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04239631629896</v>
+        <v>1.042503239549095</v>
       </c>
       <c r="J11">
-        <v>1.022129332981254</v>
+        <v>1.022465755412216</v>
       </c>
       <c r="K11">
-        <v>1.031036138075902</v>
+        <v>1.031085804293098</v>
       </c>
       <c r="L11">
-        <v>1.016260252537984</v>
+        <v>1.016568544431192</v>
       </c>
       <c r="M11">
-        <v>1.033341004849969</v>
+        <v>1.033483195259635</v>
       </c>
       <c r="N11">
-        <v>1.011273917771078</v>
+        <v>1.013588815770859</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035448931899325</v>
+        <v>1.035561402832539</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033085179922872</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033135950442628</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02073828106439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9918479024111273</v>
+        <v>0.9922311283942938</v>
       </c>
       <c r="D12">
-        <v>1.016082735720586</v>
+        <v>1.016165405309146</v>
       </c>
       <c r="E12">
-        <v>1.000956506680218</v>
+        <v>1.001297596542579</v>
       </c>
       <c r="F12">
-        <v>1.019323122014167</v>
+        <v>1.019482112558967</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042400434466742</v>
+        <v>1.042523536413236</v>
       </c>
       <c r="J12">
-        <v>1.022001326166975</v>
+        <v>1.022367959323454</v>
       </c>
       <c r="K12">
-        <v>1.030908168748094</v>
+        <v>1.03098931931739</v>
       </c>
       <c r="L12">
-        <v>1.016065404446461</v>
+        <v>1.016399978803251</v>
       </c>
       <c r="M12">
-        <v>1.034089254345358</v>
+        <v>1.034245347909354</v>
       </c>
       <c r="N12">
-        <v>1.011255294271041</v>
+        <v>1.013681301689208</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036367996044183</v>
+        <v>1.03649142220145</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032994701040057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033067733564167</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020743481134926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9922523695696307</v>
+        <v>0.9926037895905466</v>
       </c>
       <c r="D13">
-        <v>1.016383256261014</v>
+        <v>1.016429983637937</v>
       </c>
       <c r="E13">
-        <v>1.001293686445478</v>
+        <v>1.001605756045939</v>
       </c>
       <c r="F13">
-        <v>1.020389067438469</v>
+        <v>1.020532728318907</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042600671009704</v>
+        <v>1.042703531435778</v>
       </c>
       <c r="J13">
-        <v>1.022294446170144</v>
+        <v>1.022630723209322</v>
       </c>
       <c r="K13">
-        <v>1.031160165347044</v>
+        <v>1.031206037619429</v>
       </c>
       <c r="L13">
-        <v>1.016352192603028</v>
+        <v>1.01665832607968</v>
       </c>
       <c r="M13">
-        <v>1.035093040643449</v>
+        <v>1.03523409964718</v>
       </c>
       <c r="N13">
-        <v>1.011376718389666</v>
+        <v>1.013744853147261</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037438843244979</v>
+        <v>1.037550353183048</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033170372746344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033218216691539</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020803900848217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9929842539601808</v>
+        <v>0.9932852491736693</v>
       </c>
       <c r="D14">
-        <v>1.016880850728781</v>
+        <v>1.016872282178485</v>
       </c>
       <c r="E14">
-        <v>1.001865299571398</v>
+        <v>1.002132440944958</v>
       </c>
       <c r="F14">
-        <v>1.021352782800863</v>
+        <v>1.021472775922038</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042827613414609</v>
+        <v>1.042900324021258</v>
       </c>
       <c r="J14">
-        <v>1.02268791284303</v>
+        <v>1.022976119966534</v>
       </c>
       <c r="K14">
-        <v>1.031507850118172</v>
+        <v>1.031499436462609</v>
       </c>
       <c r="L14">
-        <v>1.016769047403936</v>
+        <v>1.01703117051906</v>
       </c>
       <c r="M14">
-        <v>1.035899403030978</v>
+        <v>1.036017251968036</v>
       </c>
       <c r="N14">
-        <v>1.01152444189451</v>
+        <v>1.01377690953132</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038249801239086</v>
+        <v>1.038342950569535</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033417626565894</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033427222553635</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02087127822826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9933857566783936</v>
+        <v>0.9936609328379639</v>
       </c>
       <c r="D15">
-        <v>1.017148408931205</v>
+        <v>1.017111586871088</v>
       </c>
       <c r="E15">
-        <v>1.002173026464534</v>
+        <v>1.002417398389992</v>
       </c>
       <c r="F15">
-        <v>1.021730184694164</v>
+        <v>1.021838165943095</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042931961093337</v>
+        <v>1.042989551955116</v>
       </c>
       <c r="J15">
-        <v>1.022883536558293</v>
+        <v>1.023147122014826</v>
       </c>
       <c r="K15">
-        <v>1.031683845760619</v>
+        <v>1.031647684362448</v>
       </c>
       <c r="L15">
-        <v>1.016982378295211</v>
+        <v>1.017222194700195</v>
       </c>
       <c r="M15">
-        <v>1.036183897349429</v>
+        <v>1.036289964027533</v>
       </c>
       <c r="N15">
-        <v>1.011593920963107</v>
+        <v>1.013783593182937</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038512240348267</v>
+        <v>1.038596074619987</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033547947265586</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033538493266138</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02090227881025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9955319814301103</v>
+        <v>0.9956839470580197</v>
       </c>
       <c r="D16">
-        <v>1.018543301350634</v>
+        <v>1.018368756245365</v>
       </c>
       <c r="E16">
-        <v>1.003795064726251</v>
+        <v>1.003931828779799</v>
       </c>
       <c r="F16">
-        <v>1.023201974405946</v>
+        <v>1.023252893092725</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043405745106999</v>
+        <v>1.043391632965718</v>
       </c>
       <c r="J16">
-        <v>1.023846641834856</v>
+        <v>1.02399252204889</v>
       </c>
       <c r="K16">
-        <v>1.032549913112717</v>
+        <v>1.032378364723763</v>
       </c>
       <c r="L16">
-        <v>1.018059657159283</v>
+        <v>1.018193983695957</v>
       </c>
       <c r="M16">
-        <v>1.037129090395106</v>
+        <v>1.037179145365468</v>
       </c>
       <c r="N16">
-        <v>1.011915002179911</v>
+        <v>1.013801386201238</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03922055910442</v>
+        <v>1.039260123285077</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034163466613331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034058587892039</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021039271341515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9968004617725514</v>
+        <v>0.9968912539313659</v>
       </c>
       <c r="D17">
-        <v>1.019357746298175</v>
+        <v>1.019111509012218</v>
       </c>
       <c r="E17">
-        <v>1.00474585686024</v>
+        <v>1.004829595642619</v>
       </c>
       <c r="F17">
-        <v>1.023824684320558</v>
+        <v>1.023847243022498</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043650479655931</v>
+        <v>1.043600232246002</v>
       </c>
       <c r="J17">
-        <v>1.024382151203366</v>
+        <v>1.024469423086255</v>
       </c>
       <c r="K17">
-        <v>1.033034668753975</v>
+        <v>1.032792541490463</v>
       </c>
       <c r="L17">
-        <v>1.018671182578583</v>
+        <v>1.018753471165084</v>
       </c>
       <c r="M17">
-        <v>1.037427489381984</v>
+        <v>1.037449675891903</v>
       </c>
       <c r="N17">
-        <v>1.012084761642059</v>
+        <v>1.013827541575355</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039327222109053</v>
+        <v>1.039344760398062</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034508803840323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034354270266479</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021110421172923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9974137399846789</v>
+        <v>0.9974830921164403</v>
       </c>
       <c r="D18">
-        <v>1.019725163175395</v>
+        <v>1.019452239919944</v>
       </c>
       <c r="E18">
-        <v>1.005187721532368</v>
+        <v>1.005253438054445</v>
       </c>
       <c r="F18">
-        <v>1.023665861524399</v>
+        <v>1.023678500801373</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043702295963576</v>
+        <v>1.043639628424972</v>
       </c>
       <c r="J18">
-        <v>1.024574810424491</v>
+        <v>1.0246415235777</v>
       </c>
       <c r="K18">
-        <v>1.033211884673808</v>
+        <v>1.032943442503204</v>
       </c>
       <c r="L18">
-        <v>1.018917504970572</v>
+        <v>1.018982102304722</v>
       </c>
       <c r="M18">
-        <v>1.037088223396443</v>
+        <v>1.03710065727226</v>
       </c>
       <c r="N18">
-        <v>1.012130732102283</v>
+        <v>1.013819149994256</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038820937000127</v>
+        <v>1.038830767949356</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034622438567641</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034448164260333</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02112315871101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9974282618308582</v>
+        <v>0.9975072046307227</v>
       </c>
       <c r="D19">
-        <v>1.019692191369852</v>
+        <v>1.019430214605467</v>
       </c>
       <c r="E19">
-        <v>1.005164221174403</v>
+        <v>1.005239186334311</v>
       </c>
       <c r="F19">
-        <v>1.022746903295211</v>
+        <v>1.022764147410114</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043578307485101</v>
+        <v>1.043522426163298</v>
       </c>
       <c r="J19">
-        <v>1.024453581938392</v>
+        <v>1.02452953856002</v>
       </c>
       <c r="K19">
-        <v>1.033116685336145</v>
+        <v>1.032858987260776</v>
       </c>
       <c r="L19">
-        <v>1.018830336549708</v>
+        <v>1.018904031795366</v>
       </c>
       <c r="M19">
-        <v>1.036121714466123</v>
+        <v>1.036138679198965</v>
       </c>
       <c r="N19">
-        <v>1.012066472935587</v>
+        <v>1.013760875699383</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037730432236948</v>
+        <v>1.037743849948216</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034561538974127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034395485466699</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021085336673217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9957494734435696</v>
+        <v>0.9959230604379167</v>
       </c>
       <c r="D20">
-        <v>1.018511132130982</v>
+        <v>1.018363789589141</v>
       </c>
       <c r="E20">
-        <v>1.003823837170357</v>
+        <v>1.003982998361378</v>
       </c>
       <c r="F20">
-        <v>1.019797975694195</v>
+        <v>1.019860087571782</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04295810722776</v>
+        <v>1.042962144742153</v>
       </c>
       <c r="J20">
-        <v>1.023445234802584</v>
+        <v>1.023612050958965</v>
       </c>
       <c r="K20">
-        <v>1.032236112078387</v>
+        <v>1.032091240853682</v>
       </c>
       <c r="L20">
-        <v>1.017799780610935</v>
+        <v>1.017956171249505</v>
       </c>
       <c r="M20">
-        <v>1.033501411047512</v>
+        <v>1.033562484807929</v>
       </c>
       <c r="N20">
-        <v>1.011689706314507</v>
+        <v>1.013549971858648</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035127544576583</v>
+        <v>1.035175878308255</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033942864980339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03385697468095</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020899384033352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9917188650840628</v>
+        <v>0.9921410790400808</v>
       </c>
       <c r="D21">
-        <v>1.015869908928438</v>
+        <v>1.015996568469995</v>
       </c>
       <c r="E21">
-        <v>1.000756881660341</v>
+        <v>1.001135196168079</v>
       </c>
       <c r="F21">
-        <v>1.016598981868436</v>
+        <v>1.016777985620759</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042000365940079</v>
+        <v>1.042150431803867</v>
       </c>
       <c r="J21">
-        <v>1.021566944265786</v>
+        <v>1.021971093339142</v>
       </c>
       <c r="K21">
-        <v>1.030556731993499</v>
+        <v>1.030681088859523</v>
       </c>
       <c r="L21">
-        <v>1.015723928861008</v>
+        <v>1.016095093779156</v>
       </c>
       <c r="M21">
-        <v>1.031272560575587</v>
+        <v>1.031448316318758</v>
       </c>
       <c r="N21">
-        <v>1.011049917084207</v>
+        <v>1.013522203351853</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033322488203355</v>
+        <v>1.033461588479661</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032758706241912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032863499326436</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020625636979348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9891563088175334</v>
+        <v>0.9897356002342695</v>
       </c>
       <c r="D22">
-        <v>1.014193883172161</v>
+        <v>1.014493686817862</v>
       </c>
       <c r="E22">
-        <v>0.9988163665874951</v>
+        <v>0.9993331358900702</v>
       </c>
       <c r="F22">
-        <v>1.01466329297935</v>
+        <v>1.014916442077748</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041392648720265</v>
+        <v>1.041635055360137</v>
       </c>
       <c r="J22">
-        <v>1.020379932384953</v>
+        <v>1.020933013805236</v>
       </c>
       <c r="K22">
-        <v>1.029489304825964</v>
+        <v>1.029783387018225</v>
       </c>
       <c r="L22">
-        <v>1.014411308010369</v>
+        <v>1.014917815074252</v>
       </c>
       <c r="M22">
-        <v>1.029949758374304</v>
+        <v>1.030198081929446</v>
       </c>
       <c r="N22">
-        <v>1.010646357998382</v>
+        <v>1.013498988430129</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032275567607984</v>
+        <v>1.032472101301192</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031990439717147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03221393725544</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020449748113083</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9905108612545498</v>
+        <v>0.990996728982984</v>
       </c>
       <c r="D23">
-        <v>1.015072878264246</v>
+        <v>1.015273221052813</v>
       </c>
       <c r="E23">
-        <v>0.9998401960454636</v>
+        <v>1.000274438124167</v>
       </c>
       <c r="F23">
-        <v>1.015687900804544</v>
+        <v>1.015897010265508</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041710539156994</v>
+        <v>1.041898957330505</v>
       </c>
       <c r="J23">
-        <v>1.02100340855859</v>
+        <v>1.021467929691727</v>
       </c>
       <c r="K23">
-        <v>1.030045500123618</v>
+        <v>1.030242115802453</v>
       </c>
       <c r="L23">
-        <v>1.01510193443383</v>
+        <v>1.015527774811343</v>
       </c>
       <c r="M23">
-        <v>1.030649087084834</v>
+        <v>1.030854312529378</v>
       </c>
       <c r="N23">
-        <v>1.010857475681022</v>
+        <v>1.013467115571258</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032829045586053</v>
+        <v>1.032991469499644</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032374033805914</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032527675926266</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020537589310395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9957631160248209</v>
+        <v>0.9959373145626639</v>
       </c>
       <c r="D24">
-        <v>1.018502725650842</v>
+        <v>1.018356017190204</v>
       </c>
       <c r="E24">
-        <v>1.003827291150089</v>
+        <v>1.003987111604232</v>
       </c>
       <c r="F24">
-        <v>1.01967442846336</v>
+        <v>1.019736867759139</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042935208920453</v>
+        <v>1.042939783493945</v>
       </c>
       <c r="J24">
-        <v>1.023425242492509</v>
+        <v>1.023592656161934</v>
       </c>
       <c r="K24">
-        <v>1.032212521395949</v>
+        <v>1.032068270511759</v>
       </c>
       <c r="L24">
-        <v>1.017787526986755</v>
+        <v>1.017944569022814</v>
       </c>
       <c r="M24">
-        <v>1.033364629210369</v>
+        <v>1.033426025929478</v>
       </c>
       <c r="N24">
-        <v>1.011678959375692</v>
+        <v>1.013537882617739</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034978235015838</v>
+        <v>1.035026826776832</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033898708956594</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033810585659805</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020889718694403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001673330653681</v>
+        <v>1.001637571729329</v>
       </c>
       <c r="D25">
-        <v>1.022383100059531</v>
+        <v>1.021950804966581</v>
       </c>
       <c r="E25">
-        <v>1.008343548568111</v>
+        <v>1.008320197196638</v>
       </c>
       <c r="F25">
-        <v>1.024194113414529</v>
+        <v>1.024156554450214</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044282327433706</v>
+        <v>1.044148690752154</v>
       </c>
       <c r="J25">
-        <v>1.026144511477422</v>
+        <v>1.026109950453463</v>
       </c>
       <c r="K25">
-        <v>1.034643607020888</v>
+        <v>1.034217658242486</v>
       </c>
       <c r="L25">
-        <v>1.020813707860134</v>
+        <v>1.020790711392525</v>
       </c>
       <c r="M25">
-        <v>1.036428107656196</v>
+        <v>1.036391097336311</v>
       </c>
       <c r="N25">
-        <v>1.012601208430974</v>
+        <v>1.014168046288279</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037402787418915</v>
+        <v>1.037373496105019</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03561475143264</v>
+        <v>1.0353271465924</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021305945743849</v>
       </c>
     </row>
   </sheetData>
